--- a/REGULAR/PICNIC GROVE/COSME, MA. VICTORIA.xlsx
+++ b/REGULAR/PICNIC GROVE/COSME, MA. VICTORIA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,21 @@
   </si>
   <si>
     <t>UT(0-3-23)</t>
+  </si>
+  <si>
+    <t>11/13-17/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/28,29/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/12-15/2023</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1009,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1323,12 +1338,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1511,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>107.56</v>
+        <v>102.31</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1506,7 +1521,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.25</v>
+        <v>131</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3240,13 +3255,15 @@
         <v>45139</v>
       </c>
       <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
+      <c r="C93" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="41"/>
       <c r="E93" s="10"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="41"/>
       <c r="I93" s="10"/>
@@ -3258,13 +3275,15 @@
         <v>45170</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="41"/>
       <c r="E94" s="10"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="41"/>
       <c r="I94" s="10"/>
@@ -3272,15 +3291,19 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="42">
+        <v>45200</v>
+      </c>
       <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="41"/>
       <c r="E95" s="10"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="41"/>
       <c r="I95" s="10"/>
@@ -3288,10 +3311,16 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21"/>
+      <c r="A96" s="42">
+        <v>45231</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
+      <c r="D96" s="41">
+        <v>5</v>
+      </c>
       <c r="E96" s="10"/>
       <c r="F96" s="21"/>
       <c r="G96" s="14" t="str">
@@ -3301,11 +3330,15 @@
       <c r="H96" s="41"/>
       <c r="I96" s="10"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
       <c r="E97" s="10"/>
@@ -3317,11 +3350,15 @@
       <c r="H97" s="41"/>
       <c r="I97" s="10"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
-      <c r="B98" s="21"/>
+      <c r="B98" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
       <c r="E98" s="10"/>
@@ -3333,13 +3370,21 @@
       <c r="H98" s="41"/>
       <c r="I98" s="10"/>
       <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="K98" s="51">
+        <v>45267</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="42">
+        <v>45261</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
+      <c r="D99" s="41">
+        <v>4</v>
+      </c>
       <c r="E99" s="10"/>
       <c r="F99" s="21"/>
       <c r="G99" s="14" t="str">
@@ -3349,7 +3394,9 @@
       <c r="H99" s="41"/>
       <c r="I99" s="10"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
@@ -3992,20 +4039,52 @@
       <c r="K139" s="21"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="45"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="41"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="45"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="41"/>
       <c r="I140" s="10"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="16"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="21"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="42"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="41"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="43"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="45"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
